--- a/database/relatorio/PE 90006-2024/DAMED_DISTRIBUIDORA_DE_MEDICAMENTOS_E_MATERIAS_MEDICOS_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90006-2024/DAMED_DISTRIBUIDORA_DE_MEDICAMENTOS_E_MATERIAS_MEDICOS_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 9 - AGULHA HIPODÉRMICA (397494)</t>
+          <t>Grupo N/A - Item 9 - AGULHA HIPODÉRMICA (397494)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 10 - AGULHA HIPODÉRMICA (397503)</t>
+          <t>Grupo N/A - Item 10 - AGULHA HIPODÉRMICA (397503)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 11 - AGULHA HIPODÉRMICA (397502)</t>
+          <t>Grupo N/A - Item 11 - AGULHA HIPODÉRMICA (397502)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 12 - AGULHA HIPODÉRMICA (397506)</t>
+          <t>Grupo N/A - Item 12 - AGULHA HIPODÉRMICA (397506)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 13 - AGULHA HIPODÉRMICA (397505)</t>
+          <t>Grupo N/A - Item 13 - AGULHA HIPODÉRMICA (397505)</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Item: 14 - AGULHA HIPODÉRMICA (397510)</t>
+          <t>Grupo N/A - Item 14 - AGULHA HIPODÉRMICA (397510)</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 15 - AGULHA HIPODÉRMICA (397513)</t>
+          <t>Grupo N/A - Item 15 - AGULHA HIPODÉRMICA (397513)</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Item: 19 - ALGODÃO (279727)</t>
+          <t>Grupo N/A - Item 19 - ALGODÃO (279727)</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Item: 27 - ATADURA (444343)</t>
+          <t>Grupo N/A - Item 27 - ATADURA (444343)</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 29 - ATADURA (444365)</t>
+          <t>Grupo N/A - Item 29 - ATADURA (444365)</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Item: 30 - ATADURA (444371)</t>
+          <t>Grupo N/A - Item 30 - ATADURA (444371)</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Item: 56 - COLETOR DE URINA (419371)</t>
+          <t>Grupo N/A - Item 56 - COLETOR DE URINA (419371)</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Item: 57 - COLETOR MATERIAL PÉRFURO-CORTANTE (363482)</t>
+          <t>Grupo N/A - Item 57 - COLETOR MATERIAL PÉRFURO-CORTANTE (363482)</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Item: 61 - COMPRESSA GAZE (269587)</t>
+          <t>Grupo N/A - Item 61 - COMPRESSA GAZE (269587)</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Item: 62 - COMPRESSA GAZE (269978)</t>
+          <t>Grupo N/A - Item 62 - COMPRESSA GAZE (269978)</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Item: 77 - EMBALAGEM P (442384)</t>
+          <t>Grupo N/A - Item 77 - EMBALAGEM P (442384)</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Item: 91 - ESPÉCULO USO MÉDICO (479759)</t>
+          <t>Grupo N/A - Item 91 - ESPÉCULO USO MÉDICO (479759)</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Item: 92 - ESPÉCULO USO MÉDICO (479757)</t>
+          <t>Grupo N/A - Item 92 - ESPÉCULO USO MÉDICO (479757)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Item: 93 - ESPÉCULO USO MÉDICO (479758)</t>
+          <t>Grupo N/A - Item 93 - ESPÉCULO USO MÉDICO (479758)</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Item: 98 - FITA HOSPITALAR (437866)</t>
+          <t>Grupo N/A - Item 98 - FITA HOSPITALAR (437866)</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Item: 116 - INDICADOR QUÍMICO (332343)</t>
+          <t>Grupo N/A - Item 116 - INDICADOR QUÍMICO (332343)</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Item: 117 - LÂMINA BISTURI (445300)</t>
+          <t>Grupo N/A - Item 117 - LÂMINA BISTURI (445300)</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Item: 118 - LÂMINA BISTURI (361076)</t>
+          <t>Grupo N/A - Item 118 - LÂMINA BISTURI (361076)</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Item: 119 - LÂMINA BISTURI (366903)</t>
+          <t>Grupo N/A - Item 119 - LÂMINA BISTURI (366903)</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Item: 120 - LÂMINA BISTURI (361077)</t>
+          <t>Grupo N/A - Item 120 - LÂMINA BISTURI (361077)</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Item: 121 - LÂMINA BISTURI (361078)</t>
+          <t>Grupo N/A - Item 121 - LÂMINA BISTURI (361078)</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Item: 122 - LANCETA (338605)</t>
+          <t>Grupo N/A - Item 122 - LANCETA (338605)</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Item: 124 - LENÇOL DESCARTÁVEL USO HOSPITALAR (481791)</t>
+          <t>Grupo N/A - Item 124 - LENÇOL DESCARTÁVEL USO HOSPITALAR (481791)</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Item: 125 - LUVA CIRÚRGICA (269946)</t>
+          <t>Grupo N/A - Item 125 - LUVA CIRÚRGICA (269946)</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Item: 130 - LUVA PARA PROCEDIMENTO NÃO CIRÚRGICO (387698)</t>
+          <t>Grupo N/A - Item 130 - LUVA PARA PROCEDIMENTO NÃO CIRÚRGICO (387698)</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Item: 131 - LUVA PARA PROCEDIMENTO NÃO CIRÚRGICO (346720)</t>
+          <t>Grupo N/A - Item 131 - LUVA PARA PROCEDIMENTO NÃO CIRÚRGICO (346720)</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Item: 132 - LUVA PARA PROCEDIMENTO NÃO CIRÚRGICO (269894)</t>
+          <t>Grupo N/A - Item 132 - LUVA PARA PROCEDIMENTO NÃO CIRÚRGICO (269894)</t>
         </is>
       </c>
     </row>
